--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2024.xlsx
@@ -2374,10 +2374,10 @@
         <v>6</v>
       </c>
       <c r="AY5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA5">
         <v>4</v>
@@ -2580,10 +2580,10 @@
         <v>1</v>
       </c>
       <c r="AY6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA6">
         <v>8</v>
@@ -2992,10 +2992,10 @@
         <v>2</v>
       </c>
       <c r="AY8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA8">
         <v>7</v>
@@ -3404,7 +3404,7 @@
         <v>6</v>
       </c>
       <c r="AY10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ10">
         <v>12</v>
@@ -3610,10 +3610,10 @@
         <v>3</v>
       </c>
       <c r="AY11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA11">
         <v>6</v>
@@ -3819,7 +3819,7 @@
         <v>7</v>
       </c>
       <c r="AZ12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA12">
         <v>3</v>
@@ -4022,10 +4022,10 @@
         <v>4</v>
       </c>
       <c r="AY13">
+        <v>10</v>
+      </c>
+      <c r="AZ13">
         <v>12</v>
-      </c>
-      <c r="AZ13">
-        <v>14</v>
       </c>
       <c r="BA13">
         <v>0</v>
@@ -4228,10 +4228,10 @@
         <v>5</v>
       </c>
       <c r="AY14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA14">
         <v>6</v>
@@ -4434,10 +4434,10 @@
         <v>1</v>
       </c>
       <c r="AY15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA15">
         <v>3</v>
@@ -4640,7 +4640,7 @@
         <v>5</v>
       </c>
       <c r="AY16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ16">
         <v>8</v>
@@ -5052,10 +5052,10 @@
         <v>4</v>
       </c>
       <c r="AY18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA18">
         <v>4</v>
@@ -5258,10 +5258,10 @@
         <v>7</v>
       </c>
       <c r="AY19">
+        <v>12</v>
+      </c>
+      <c r="AZ19">
         <v>14</v>
-      </c>
-      <c r="AZ19">
-        <v>16</v>
       </c>
       <c r="BA19">
         <v>12</v>
@@ -5879,7 +5879,7 @@
         <v>4</v>
       </c>
       <c r="AZ22">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BA22">
         <v>2</v>
@@ -6700,10 +6700,10 @@
         <v>3</v>
       </c>
       <c r="AY26">
+        <v>8</v>
+      </c>
+      <c r="AZ26">
         <v>10</v>
-      </c>
-      <c r="AZ26">
-        <v>11</v>
       </c>
       <c r="BA26">
         <v>7</v>
@@ -6909,7 +6909,7 @@
         <v>6</v>
       </c>
       <c r="AZ27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA27">
         <v>7</v>
@@ -7318,10 +7318,10 @@
         <v>3</v>
       </c>
       <c r="AY29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA29">
         <v>4</v>
@@ -7524,10 +7524,10 @@
         <v>7</v>
       </c>
       <c r="AY30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA30">
         <v>6</v>
@@ -7730,10 +7730,10 @@
         <v>6</v>
       </c>
       <c r="AY31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA31">
         <v>5</v>
@@ -7936,10 +7936,10 @@
         <v>6</v>
       </c>
       <c r="AY32">
+        <v>11</v>
+      </c>
+      <c r="AZ32">
         <v>14</v>
-      </c>
-      <c r="AZ32">
-        <v>18</v>
       </c>
       <c r="BA32">
         <v>4</v>
@@ -8142,10 +8142,10 @@
         <v>5</v>
       </c>
       <c r="AY33">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ33">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="BA33">
         <v>4</v>
@@ -8348,7 +8348,7 @@
         <v>6</v>
       </c>
       <c r="AY34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ34">
         <v>10</v>
@@ -8554,10 +8554,10 @@
         <v>5</v>
       </c>
       <c r="AY35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ35">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA35">
         <v>2</v>
@@ -8966,10 +8966,10 @@
         <v>4</v>
       </c>
       <c r="AY37">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ37">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA37">
         <v>7</v>
@@ -9172,7 +9172,7 @@
         <v>3</v>
       </c>
       <c r="AY38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ38">
         <v>6</v>
@@ -9584,10 +9584,10 @@
         <v>10</v>
       </c>
       <c r="AY40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA40">
         <v>2</v>
@@ -9996,10 +9996,10 @@
         <v>2</v>
       </c>
       <c r="AY42">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ42">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA42">
         <v>5</v>
@@ -10202,10 +10202,10 @@
         <v>4</v>
       </c>
       <c r="AY43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA43">
         <v>5</v>
@@ -10408,10 +10408,10 @@
         <v>2</v>
       </c>
       <c r="AY44">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA44">
         <v>4</v>
@@ -10614,10 +10614,10 @@
         <v>5</v>
       </c>
       <c r="AY45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ45">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA45">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>5</v>
       </c>
       <c r="AY46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ46">
         <v>10</v>
@@ -11232,7 +11232,7 @@
         <v>4</v>
       </c>
       <c r="AY48">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ48">
         <v>7</v>
@@ -11644,10 +11644,10 @@
         <v>2</v>
       </c>
       <c r="AY50">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AZ50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA50">
         <v>8</v>
@@ -11850,7 +11850,7 @@
         <v>7</v>
       </c>
       <c r="AY51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ51">
         <v>10</v>
@@ -12056,10 +12056,10 @@
         <v>4</v>
       </c>
       <c r="AY52">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA52">
         <v>1</v>
@@ -12262,10 +12262,10 @@
         <v>2</v>
       </c>
       <c r="AY53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA53">
         <v>1</v>
@@ -12468,10 +12468,10 @@
         <v>5</v>
       </c>
       <c r="AY54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ54">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA54">
         <v>9</v>
@@ -12674,7 +12674,7 @@
         <v>10</v>
       </c>
       <c r="AY55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ55">
         <v>12</v>
@@ -12880,10 +12880,10 @@
         <v>10</v>
       </c>
       <c r="AY56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ56">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA56">
         <v>8</v>
@@ -13086,10 +13086,10 @@
         <v>3</v>
       </c>
       <c r="AY57">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA57">
         <v>6</v>
@@ -13292,10 +13292,10 @@
         <v>6</v>
       </c>
       <c r="AY58">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ58">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA58">
         <v>12</v>
@@ -13498,10 +13498,10 @@
         <v>11</v>
       </c>
       <c r="AY59">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA59">
         <v>3</v>
@@ -13704,10 +13704,10 @@
         <v>5</v>
       </c>
       <c r="AY60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ60">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA60">
         <v>7</v>
@@ -14116,10 +14116,10 @@
         <v>3</v>
       </c>
       <c r="AY62">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA62">
         <v>4</v>
@@ -14322,10 +14322,10 @@
         <v>5</v>
       </c>
       <c r="AY63">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA63">
         <v>5</v>
@@ -14528,10 +14528,10 @@
         <v>3</v>
       </c>
       <c r="AY64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ64">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA64">
         <v>4</v>
@@ -14734,7 +14734,7 @@
         <v>1</v>
       </c>
       <c r="AY65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ65">
         <v>5</v>
@@ -14940,10 +14940,10 @@
         <v>4</v>
       </c>
       <c r="AY66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA66">
         <v>2</v>
@@ -15146,10 +15146,10 @@
         <v>4</v>
       </c>
       <c r="AY67">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA67">
         <v>3</v>
@@ -15558,10 +15558,10 @@
         <v>2</v>
       </c>
       <c r="AY69">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA69">
         <v>3</v>
@@ -15764,10 +15764,10 @@
         <v>7</v>
       </c>
       <c r="AY70">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA70">
         <v>3</v>
@@ -15973,7 +15973,7 @@
         <v>12</v>
       </c>
       <c r="AZ71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA71">
         <v>8</v>
@@ -16176,10 +16176,10 @@
         <v>5</v>
       </c>
       <c r="AY72">
+        <v>9</v>
+      </c>
+      <c r="AZ72">
         <v>10</v>
-      </c>
-      <c r="AZ72">
-        <v>14</v>
       </c>
       <c r="BA72">
         <v>8</v>
@@ -16794,7 +16794,7 @@
         <v>7</v>
       </c>
       <c r="AY75">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AZ75">
         <v>12</v>
@@ -17003,7 +17003,7 @@
         <v>10</v>
       </c>
       <c r="AZ76">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA76">
         <v>1</v>
@@ -17206,7 +17206,7 @@
         <v>0</v>
       </c>
       <c r="AY77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ77">
         <v>2</v>
@@ -17618,10 +17618,10 @@
         <v>2</v>
       </c>
       <c r="AY79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ79">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA79">
         <v>3</v>
@@ -17827,7 +17827,7 @@
         <v>0</v>
       </c>
       <c r="AZ80">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA80">
         <v>5</v>
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="AY81">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ81">
         <v>3</v>
@@ -18236,10 +18236,10 @@
         <v>2</v>
       </c>
       <c r="AY82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA82">
         <v>3</v>
@@ -18445,7 +18445,7 @@
         <v>5</v>
       </c>
       <c r="AZ83">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA83">
         <v>2</v>
@@ -18648,10 +18648,10 @@
         <v>5</v>
       </c>
       <c r="AY84">
+        <v>9</v>
+      </c>
+      <c r="AZ84">
         <v>12</v>
-      </c>
-      <c r="AZ84">
-        <v>13</v>
       </c>
       <c r="BA84">
         <v>4</v>
